--- a/data/input/absenteeism_data_32.xlsx
+++ b/data/input/absenteeism_data_32.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68538</v>
+        <v>57517</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Thiago Nascimento</t>
+          <t>João Gabriel da Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>10355.58</v>
+        <v>8559.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33942</v>
+        <v>73768</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitória Vieira</t>
+          <t>Pietro Nunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>9660.24</v>
+        <v>3221.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59224</v>
+        <v>79404</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paulo Nogueira</t>
+          <t>Emanuel da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,89 +548,89 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>9336.030000000001</v>
+        <v>10637.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3380</v>
+        <v>12781</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vicente Peixoto</t>
+          <t>Caroline Santos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>10012.34</v>
+        <v>10271.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44960</v>
+        <v>91636</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heitor das Neves</t>
+          <t>Gustavo da Luz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>9422.450000000001</v>
+        <v>4808.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25587</v>
+        <v>82423</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Rafaela Silveira</t>
+          <t>Felipe Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,85 +639,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>3432.26</v>
+        <v>5433.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86136</v>
+        <v>89273</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emanuel Vieira</t>
+          <t>Marcelo da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>10712.94</v>
+        <v>5637.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>92471</v>
+        <v>29557</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Joaquim Cardoso</t>
+          <t>Maria Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>5712.43</v>
+        <v>9908.370000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7565</v>
+        <v>43722</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beatriz Cardoso</t>
+          <t>Sr. Danilo da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>9839.719999999999</v>
+        <v>7945.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34719</v>
+        <v>51391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Evelyn Costa</t>
+          <t>Maria Fernanda Novaes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>6435.21</v>
+        <v>3245.58</v>
       </c>
     </row>
   </sheetData>
